--- a/data&code/yearly/2020_data.xlsx
+++ b/data&code/yearly/2020_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Desktop/Python/bgg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A02E169-0977-FC43-82ED-CE84C2104B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E50DE-F799-D64B-B81B-D1AF2DB336FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A560C191-9E22-0149-9657-0D6881E9F5CA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{A560C191-9E22-0149-9657-0D6881E9F5CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -905,12 +905,6 @@
     <t>Mismatch, 59 according to Ira (2021); Internal mismatch, 59 according to the 2021 geeklist, 65 according to the 2022 geeklist. Stats match.</t>
   </si>
   <si>
-    <t>Internal mismatch, 5 according to the 2021 geeklist, 6 according to the 2022 geeklist. Avg. Vote, number of votes and count of #1 votes do not match. Reported stats based on 2021.</t>
-  </si>
-  <si>
-    <t>Internal mismatch, 17 according to the 2021 geeklist, 20 according to the 2022 geeklist. Avg. Score, number of votes and count of #1 votes do not match. Reported stats based on 2021.</t>
-  </si>
-  <si>
     <t>Internal mismatch, 65 according to the 2021 geeklist, 71 according to the 2022 geeklist. Score does not match. Reported stats based on 2021.</t>
   </si>
   <si>
@@ -939,6 +933,12 @@
   </si>
   <si>
     <t>Rococo</t>
+  </si>
+  <si>
+    <t>Internal mismatch, 17 according to the 2021 geeklist, 20 according to the 2022 geeklist. Avg. Vote, number of votes and count of #1 votes do not match. Reported stats based on 2021.</t>
+  </si>
+  <si>
+    <t>Internal mismatch, 18 according to the 2021 geeklist, 21 according to the 2022 geeklist. Avg. Vote, number of votes and count of #1 votes do not match. Reported stats based on 2021.</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1309,10 @@
   <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>2020</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -3915,7 +3915,7 @@
         <v>2020</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -4917,7 +4917,7 @@
         <v>151</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f t="shared" ref="C98:C129" si="5">LEFT(TRIM(B98), SEARCH(".",TRIM(B98),1)-1)</f>
+        <f t="shared" ref="C98:C126" si="5">LEFT(TRIM(B98), SEARCH(".",TRIM(B98),1)-1)</f>
         <v>97</v>
       </c>
       <c r="D98" t="str">
@@ -5032,7 +5032,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
